--- a/WebSites/NOPR/Files/Sample.xlsx
+++ b/WebSites/NOPR/Files/Sample.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>XXXX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoPunchIn</t>
-  </si>
-  <si>
-    <t>2014-11-17</t>
-  </si>
-  <si>
-    <t>09.00.00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Employee ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57,23 +44,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>falcon.wang@airmacau.com.mo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Other's Email</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>00007</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>00997</t>
+  </si>
+  <si>
+    <t>Tang Veng Si Maria Luiza</t>
+  </si>
+  <si>
+    <t>NoPunchOut</t>
+  </si>
+  <si>
+    <t>2016-11-10</t>
+  </si>
+  <si>
+    <t>alice.wang@airmacau.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,12 +93,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -154,21 +143,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -184,7 +174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -226,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,10 +248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,7 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,104 +457,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="43.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="43.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="22.8">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="15.6">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="falcon.wang@airmacau.com.mo"/>
-    <hyperlink ref="G3" r:id="rId2" display="b@airmacau.com.mo"/>
-    <hyperlink ref="F4" r:id="rId3" display="falcon.wang@airmacau.com.mo"/>
-    <hyperlink ref="F5" r:id="rId4" display="falcon.wang@airmacau.com.mo"/>
-    <hyperlink ref="F6" r:id="rId5" display="falcon.wang@airmacau.com.mo"/>
-    <hyperlink ref="F2" r:id="rId6"/>
-    <hyperlink ref="G4" r:id="rId7" display="b@airmacau.com.mo"/>
-    <hyperlink ref="G5" r:id="rId8" display="b@airmacau.com.mo"/>
-    <hyperlink ref="G6" r:id="rId9" display="b@airmacau.com.mo"/>
-    <hyperlink ref="F7" r:id="rId10" display="falcon.wang@airmacau.com.mo"/>
-    <hyperlink ref="G7" r:id="rId11" display="b@airmacau.com.mo"/>
-    <hyperlink ref="F9" r:id="rId12" display="falcon.wang@airmacau.com.mo"/>
-    <hyperlink ref="G9" r:id="rId13" display="b@airmacau.com.mo"/>
-    <hyperlink ref="F10" r:id="rId14" display="falcon.wang@airmacau.com.mo"/>
-    <hyperlink ref="F11" r:id="rId15" display="falcon.wang@airmacau.com.mo"/>
-    <hyperlink ref="F12" r:id="rId16" display="falcon.wang@airmacau.com.mo"/>
-    <hyperlink ref="F8" r:id="rId17" display="falcon.wang@airmacau.com.mo"/>
-    <hyperlink ref="G10" r:id="rId18" display="b@airmacau.com.mo"/>
-    <hyperlink ref="G11" r:id="rId19" display="b@airmacau.com.mo"/>
-    <hyperlink ref="G12" r:id="rId20" display="b@airmacau.com.mo"/>
-    <hyperlink ref="G8" r:id="rId21" display="a@airmacau.com.mo"/>
-    <hyperlink ref="F13" r:id="rId22" display="falcon.wang@airmacau.com.mo"/>
-    <hyperlink ref="G13" r:id="rId23" display="b@airmacau.com.mo"/>
-    <hyperlink ref="G2" r:id="rId24"/>
-    <hyperlink ref="H2" r:id="rId25"/>
+    <hyperlink ref="G3" r:id="rId1" display="b@airmacau.com.mo"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3" display="b@airmacau.com.mo"/>
+    <hyperlink ref="G5" r:id="rId4" display="b@airmacau.com.mo"/>
+    <hyperlink ref="G6" r:id="rId5" display="b@airmacau.com.mo"/>
+    <hyperlink ref="G7" r:id="rId6" display="b@airmacau.com.mo"/>
+    <hyperlink ref="G9" r:id="rId7" display="b@airmacau.com.mo"/>
+    <hyperlink ref="G10" r:id="rId8" display="b@airmacau.com.mo"/>
+    <hyperlink ref="G11" r:id="rId9" display="b@airmacau.com.mo"/>
+    <hyperlink ref="G12" r:id="rId10" display="b@airmacau.com.mo"/>
+    <hyperlink ref="G8" r:id="rId11" display="a@airmacau.com.mo"/>
+    <hyperlink ref="G13" r:id="rId12" display="b@airmacau.com.mo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>